--- a/Splendor/Environment/Splendor_components/Board_components/Splendor_cards_numeric.xlsx
+++ b/Splendor/Environment/Splendor_components/Board_components/Splendor_cards_numeric.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Python_Files\Splendor\Environment\Splendor_components\Board_components\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Coding Programs\GitHub\Splendor-AI\Splendor\Environment\Splendor_components\Board_components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FC828D-50C6-41B5-AD0B-A6D1920506C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013B3419-C3FC-45ED-8648-B15DB2C68348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19455" yWindow="2115" windowWidth="15120" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26340" yWindow="3450" windowWidth="18090" windowHeight="15885" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
     <sheet name="1" sheetId="3" r:id="rId2"/>
     <sheet name="2" sheetId="4" r:id="rId3"/>
-    <sheet name="3" sheetId="5" r:id="rId4"/>
+    <sheet name="Noble" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'0'!$B$1:$I$45</definedName>
@@ -378,7 +378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2835,7 +2835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5EFF4C-5A62-4F84-A501-5E8E8E55D25C}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/Splendor/Environment/Splendor_components/Board_components/Splendor_cards_numeric.xlsx
+++ b/Splendor/Environment/Splendor_components/Board_components/Splendor_cards_numeric.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Coding Programs\GitHub\Splendor-AI\Splendor\Environment\Splendor_components\Board_components\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Splendor-AI\Splendor\Environment\Splendor_components\Board_components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013B3419-C3FC-45ED-8648-B15DB2C68348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338915C8-5A92-4E30-9E77-57D60C94FCFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26340" yWindow="3450" windowWidth="18090" windowHeight="15885" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17175" yWindow="4005" windowWidth="19215" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Noble" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'0'!$B$1:$I$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'0'!$A$1:$H$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,6 +36,9 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -378,7 +381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2835,7 +2838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5EFF4C-5A62-4F84-A501-5E8E8E55D25C}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
